--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf5-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf5-Acvr1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N2">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O2">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P2">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q2">
-        <v>0.1427653467093333</v>
+        <v>0.140514487916</v>
       </c>
       <c r="R2">
-        <v>1.284888120384</v>
+        <v>1.264630391244</v>
       </c>
       <c r="S2">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="T2">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,25 +617,25 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N3">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O3">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P3">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q3">
         <v>0.4717022600546666</v>
       </c>
       <c r="R3">
-        <v>4.245320340491999</v>
+        <v>4.245320340492</v>
       </c>
       <c r="S3">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="T3">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>17.540158</v>
       </c>
       <c r="O4">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P4">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q4">
         <v>0.1777636546106666</v>
@@ -694,10 +694,10 @@
         <v>1.599872891496</v>
       </c>
       <c r="S4">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="T4">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
     </row>
   </sheetData>
